--- a/pred_ohlcv/54_21/2020-01-13 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 EOS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>42760.08439821</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>41396.52319820999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>51615.50119821</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>32943.63369820999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>32103.05299820999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>30429.04819820999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>31640.74589820999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>39685.61599820999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>50929.32529820999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>53260.34639820999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>43664.36989821</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>41921.7327702</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>44935.43215795</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>48099.06035794999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>48212.69635794999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>42605.20945795</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>42354.25415795</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42397.07725795</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>42679.12085794999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>57760.14615795</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>61840.32255794999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60616.54129561999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>59741.53049562</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>68755.56689749</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>66827.10219749001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>68217.28789749001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>67154.23989749001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>68761.07339749001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>82960.74169749001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>82210.50529749002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>81574.96739749002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>80984.29580690002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>87807.87470690001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>86640.85140690001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>87483.80340690001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>82168.04130690001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>82211.45430690001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>76939.6105069</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>76613.0186069</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>73801.8966069</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>74485.17400690001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>74371.5740069</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>74238.46290690001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>81105.5299069</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>73123.28025401002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>65167.00865401002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>65150.94865401003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>72825.88495401003</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>72179.59845401003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>72341.88935401004</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>72499.39315401005</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>71130.06815401005</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>71066.06915401005</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>70993.38015401005</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>80851.59175401005</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>69181.22965401004</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>69164.78135401003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>70217.75655401003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-101648.33538578</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-98064.82360871001</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-96262.25907294998</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-96681.04137294999</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-97687.51137294999</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-106965.22757295</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-106940.77027295</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-110333.35637295</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-112555.66567295</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-109425.85047295</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-110895.09819032</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-113141.55769032</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-108152.12331527</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-102257.39866579</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-102565.18066579</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-112137.02636579</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-111984.96196579</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-110276.59436579</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-110292.34436579</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-95209.86506579</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-109229.74196579</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-99211.43756578999</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-87212.56961442003</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-87798.70531442003</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-87774.63761442003</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-87944.34761442004</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-88180.27541442004</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-87832.19111442004</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-87602.75881442004</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-76412.40831442006</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-94701.25171121005</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-95103.68381121005</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-94684.83931121005</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-94707.14861121004</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-96426.86021121003</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-89310.38291121004</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-89119.37931121004</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-88967.01041121004</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-88266.59491121004</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-91891.93371121003</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-91325.82961121004</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-91072.01771121004</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-91302.06771121004</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-91924.98431121005</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-89905.06711121005</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-90191.34501121005</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-89785.92901121006</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-89591.58641121005</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-90091.43641121006</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-90214.42491121007</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-90208.51501121007</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-90192.64076548006</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-90449.52286548006</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-90397.82376548006</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-90164.27886548007</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-93273.82616548007</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-92926.83426548008</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-89928.27266548008</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-89927.71266548008</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-108825.2999690101</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-107978.4704690101</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-103201.2390690101</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-103723.6797690101</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-107089.9009690101</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-108217.4334690101</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-109665.8533965201</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-108359.9875965201</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-119090.2479965201</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-124734.8837023201</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-126195.5023023201</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-128337.1180479101</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-128462.6664479101</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-128421.0873479101</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-128254.7717479101</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-128388.8077479101</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-128262.9103479101</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-128310.2870479101</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-125957.4202479101</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-125902.5628479101</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-118267.7258812701</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-117685.4324812701</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-117878.9240812701</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-117909.7897812701</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-114821.4659812701</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-111267.9056812701</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-116973.9439812701</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-114022.9954812701</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-117926.7266812701</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-113307.0988812701</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-112485.0073812701</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-84443.2197616201</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-84563.2197616201</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-85145.88316162011</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-85730.6361616201</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-87356.0775616201</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-86317.5886616201</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-86701.21556162011</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-87668.54506162011</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-88669.07376162011</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-92564.2485616201</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-73954.7237616201</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-75305.4449616201</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-75640.0753616201</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-75271.2203616201</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-73897.6012616201</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-73883.97516162011</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-73811.32576162012</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-60261.23784610009</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-61895.49504610009</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-61416.04814610009</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-61447.44254610009</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-19932.05479091008</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-19591.15279091008</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-15071.59019091008</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-16497.26749091008</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-13439.16239091008</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-7949.524690910078</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>31421.12620908992</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>24130.79270908992</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>21834.46860908992</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>85450.50052402986</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>76601.75497577987</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>123082.4041124899</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>135700.0047124899</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>128635.3625491999</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>117117.8685491999</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>111026.2765491999</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>102023.1480707199</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>107571.3662707199</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>100690.5012707199</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>76760.52026502986</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>73792.18726502986</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>77700.40006502985</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>69703.14586502986</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>73534.63616502986</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 EOS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>42760.08439821</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>41396.52319820999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>51615.50119821</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>32943.63369820999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>32103.05299820999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>30429.04819820999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>31640.74589820999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>39685.61599820999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>50929.32529820999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>53260.34639820999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>43664.36989821</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>41921.7327702</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>44935.43215795</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>48099.06035794999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>48212.69635794999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>42605.20945795</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>42354.25415795</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42397.07725795</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>42679.12085794999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>57760.14615795</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>61840.32255794999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60616.54129561999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>59741.53049562</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>68755.56689749</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>66827.10219749001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>68217.28789749001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>67154.23989749001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>68761.07339749001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>82960.74169749001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>82210.50529749002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>81574.96739749002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>80984.29580690002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>87807.87470690001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>86640.85140690001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>87483.80340690001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>82168.04130690001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>82211.45430690001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>76939.6105069</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>76613.0186069</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>73801.8966069</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>74485.17400690001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>74371.5740069</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>74238.46290690001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>81105.5299069</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>73123.28025401002</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>65167.00865401002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>65150.94865401003</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>72825.88495401003</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>72179.59845401003</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>72341.88935401004</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>72499.39315401005</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>71130.06815401005</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>71066.06915401005</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>70993.38015401005</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>80851.59175401005</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>69181.22965401004</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>69164.78135401003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>70217.75655401003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-86053.27107294998</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-84779.74637294999</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-87034.05827294997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-95947.83957294998</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-97132.84597294997</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-95774.67897294997</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-96276.03047294998</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-96262.25907294998</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-96681.04137294999</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-97687.51137294999</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-106965.22757295</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-106940.77027295</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-110333.35637295</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-112555.66567295</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-109425.85047295</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-110895.09819032</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-113141.55769032</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-108152.12331527</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-102257.39866579</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-102565.18066579</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-112137.02636579</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-111984.96196579</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-110276.59436579</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-110292.34436579</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-99211.43756578999</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-97422.44536579</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-95671.54196579001</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-96314.56336579</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-94151.49076579</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-93866.78686579001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-99260.14476579001</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-99234.93706579001</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-99492.68916579001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-97825.17756579001</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-98835.51326579002</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-96035.35376579003</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-97146.07326579004</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-88719.15096579003</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-83213.21556579003</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-87212.56961442003</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-87798.70531442003</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-87774.63761442003</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-87944.34761442004</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-88180.27541442004</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-87832.19111442004</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-87602.75881442004</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-76412.40831442006</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-94701.25171121005</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-95103.68381121005</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-94684.83931121005</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-94707.14861121004</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-96426.86021121003</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-89310.38291121004</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-89119.37931121004</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-88967.01041121004</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-88266.59491121004</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-91891.93371121003</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-91325.82961121004</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-91072.01771121004</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-91302.06771121004</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-91924.98431121005</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-89905.06711121005</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-90191.34501121005</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-89785.92901121006</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-89591.58641121005</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-90091.43641121006</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-90214.42491121007</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-90206.51501121007</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-90208.51501121007</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-90194.91751121006</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-90192.64076548006</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-90449.52286548006</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-90397.82376548006</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-90164.27886548007</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-93273.82616548007</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-92926.83426548008</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-89928.27266548008</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-89927.71266548008</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-108825.2999690101</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-107978.4704690101</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-103201.2390690101</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-103723.6797690101</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-107089.9009690101</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-108217.4334690101</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-109665.8533965201</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-108359.9875965201</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-119090.2479965201</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-124734.8837023201</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-126195.5023023201</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-128337.1180479101</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-128462.6664479101</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-128421.0873479101</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-128254.7717479101</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-128388.8077479101</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-128262.9103479101</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-128310.2870479101</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-125957.4202479101</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-125902.5628479101</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-118267.7258812701</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-117685.4324812701</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-117878.9240812701</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-117909.7897812701</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-114821.4659812701</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-111267.9056812701</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-116973.9439812701</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-114022.9954812701</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-117926.7266812701</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-113307.0988812701</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-112485.0073812701</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-84443.2197616201</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-84563.2197616201</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-85145.88316162011</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-85730.6361616201</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-87356.0775616201</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-86317.5886616201</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-86701.21556162011</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-87668.54506162011</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-88669.07376162011</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-92564.2485616201</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-73954.7237616201</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-75305.4449616201</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-75640.0753616201</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-75271.2203616201</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-73897.6012616201</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-73883.97516162011</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-73811.32576162012</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-60261.23784610009</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-61895.49504610009</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-61416.04814610009</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-61447.44254610009</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-19932.05479091008</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-19591.15279091008</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-15071.59019091008</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-16497.26749091008</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-13439.16239091008</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-7949.524690910078</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>31421.12620908992</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>24130.79270908992</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>21834.46860908992</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>76582.80891885988</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>76787.89822402988</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>83546.85472402988</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>86434.51942402987</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>85650.92212402988</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>85850.93948142987</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>75823.00378142987</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>70532.84218142986</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>86694.90212402986</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>76700.85442402987</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>85450.50052402986</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>76409.40527577986</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>76601.75497577987</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>123082.4041124899</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>135700.0047124899</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>128635.3625491999</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>117117.8685491999</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>111026.2765491999</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>102023.1480707199</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>107571.3662707199</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>100690.5012707199</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>76760.52026502986</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>73792.18726502986</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>77700.40006502985</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>69703.14586502986</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>73534.63616502986</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
